--- a/Output/allpublishers.xlsx
+++ b/Output/allpublishers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\FB3.3_Szientometrie\4_Conferences and references\2021-04_BIR@ECIR2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e80c4cc3a33b71a/2020 Research/2020-07 Largest Academic Publishers/Academic Publishers and Scholarly Journals/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7168154C-2500-4F5B-828D-30D5013D8E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7168154C-2500-4F5B-828D-30D5013D8E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58AF7075-41D4-4390-9243-109F225890F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>Publisher,"DOAJ_Journals","Publons_Journals","Romeo_Journals","Scopus_Journals","maxjournals"</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>OUP</t>
   </si>
   <si>
     <t>Medknow Publications</t>
@@ -1260,16 +1257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1619,66 +1614,66 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1711,23 +1706,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="alljournals" displayName="alljournals" ref="A1:F178" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F178" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:F178">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F178">
     <sortCondition descending="1" ref="F1:F178"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Publisher" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Publisher" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="DOAJ_Journals" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Publons_Journals" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Romeo_Journals" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Scopus_Journals" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="maxjournals" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="maxjournals" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2025,19 +2020,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -2057,8 +2054,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B2">
@@ -2077,8 +2074,8 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B3">
@@ -2097,8 +2094,8 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B4">
@@ -2117,8 +2114,8 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B5">
@@ -2137,8 +2134,8 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B6">
@@ -2157,8 +2154,8 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B7">
@@ -2177,8 +2174,8 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B8">
@@ -2197,8 +2194,8 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B9">
@@ -2217,8 +2214,8 @@
         <v>901</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B10">
@@ -2237,8 +2234,8 @@
         <v>863</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B11">
@@ -2257,8 +2254,8 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B12">
@@ -2277,8 +2274,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B13">
@@ -2297,8 +2294,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B14">
@@ -2317,8 +2314,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B15">
@@ -2337,9 +2334,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>361</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -2357,9 +2354,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>199</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B17">
         <v>207</v>
@@ -2377,9 +2374,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>200</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2397,9 +2394,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>201</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2417,9 +2414,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>202</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B20">
         <v>321</v>
@@ -2437,9 +2434,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>203</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2457,9 +2454,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>204</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B22">
         <v>301</v>
@@ -2477,9 +2474,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>205</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2497,9 +2494,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>206</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B24">
         <v>215</v>
@@ -2517,9 +2514,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>207</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2537,9 +2534,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>208</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2557,9 +2554,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>209</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2577,9 +2574,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>210</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2597,9 +2594,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>211</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2617,9 +2614,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>212</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2637,9 +2634,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>213</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2657,9 +2654,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>214</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2677,9 +2674,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>215</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2697,9 +2694,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>216</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2717,9 +2714,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>217</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2737,9 +2734,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>218</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B36">
         <v>101</v>
@@ -2757,9 +2754,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>219</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2777,9 +2774,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>220</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2797,9 +2794,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>221</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2817,9 +2814,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>222</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2837,9 +2834,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>223</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2857,9 +2854,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>224</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2877,9 +2874,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>225</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2897,9 +2894,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>226</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2917,9 +2914,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>360</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2937,9 +2934,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>227</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2957,9 +2954,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>228</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2977,9 +2974,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>229</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2997,9 +2994,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>231</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3017,9 +3014,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>230</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3037,9 +3034,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>232</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3057,9 +3054,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>233</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3077,9 +3074,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>234</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B53">
         <v>72</v>
@@ -3097,9 +3094,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>235</v>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3117,9 +3114,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>236</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3137,9 +3134,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>238</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3157,9 +3154,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>237</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3177,9 +3174,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>239</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3197,9 +3194,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>240</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B59">
         <v>92</v>
@@ -3217,9 +3214,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>241</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3237,9 +3234,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>242</v>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3257,9 +3254,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>243</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3277,9 +3274,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>244</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3297,9 +3294,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>245</v>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3317,9 +3314,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>247</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3337,9 +3334,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>246</v>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3357,9 +3354,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>248</v>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3377,9 +3374,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>249</v>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3397,9 +3394,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>250</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3417,9 +3414,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>251</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B70">
         <v>40</v>
@@ -3437,9 +3434,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>252</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3457,9 +3454,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>254</v>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3477,9 +3474,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>253</v>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B73">
         <v>48</v>
@@ -3497,9 +3494,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>255</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3517,9 +3514,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>256</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3537,9 +3534,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>257</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3557,9 +3554,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>258</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3577,9 +3574,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>259</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3597,9 +3594,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>260</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3617,9 +3614,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>261</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3637,9 +3634,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>262</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3657,9 +3654,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>263</v>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3677,9 +3674,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>264</v>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3697,9 +3694,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>265</v>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3717,9 +3714,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>266</v>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3737,9 +3734,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>267</v>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B86">
         <v>35</v>
@@ -3757,9 +3754,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>268</v>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3777,9 +3774,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>269</v>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3797,9 +3794,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>270</v>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3817,9 +3814,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>271</v>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3837,9 +3834,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>274</v>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B91">
         <v>37</v>
@@ -3857,9 +3854,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>272</v>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3877,9 +3874,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>273</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3897,9 +3894,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>275</v>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3917,1683 +3914,1683 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>33</v>
+      </c>
+      <c r="D95" s="4">
+        <v>49</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2">
+      <c r="B96" s="4">
+        <v>49</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>49</v>
+      </c>
+      <c r="E97" s="4">
+        <v>36</v>
+      </c>
+      <c r="F97" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>47</v>
+      </c>
+      <c r="E98" s="4">
+        <v>49</v>
+      </c>
+      <c r="F98" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <v>48</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <v>47</v>
+      </c>
+      <c r="E100" s="4">
+        <v>42</v>
+      </c>
+      <c r="F100" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>46</v>
+      </c>
+      <c r="F101" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <v>46</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>42</v>
+      </c>
+      <c r="E103" s="4">
+        <v>46</v>
+      </c>
+      <c r="F103" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="4">
+        <v>45</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>31</v>
+      </c>
+      <c r="F104" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="4">
+        <v>37</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>31</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45</v>
+      </c>
+      <c r="E106" s="4">
+        <v>40</v>
+      </c>
+      <c r="F106" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108" s="4">
+        <v>44</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="4">
+        <v>44</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" s="4">
+        <v>43</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <v>43</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <v>43</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <v>43</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>42</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>42</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>42</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <v>42</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>36</v>
+      </c>
+      <c r="D120" s="4">
+        <v>42</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0</v>
+      </c>
+      <c r="D121" s="4">
+        <v>42</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
+        <v>42</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
+        <v>41</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0</v>
+      </c>
+      <c r="D124" s="4">
+        <v>34</v>
+      </c>
+      <c r="E124" s="4">
+        <v>41</v>
+      </c>
+      <c r="F124" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
+        <v>41</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <v>41</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <v>40</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="4">
+        <v>40</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
+        <v>39</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B130" s="4">
+        <v>39</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>39</v>
+      </c>
+      <c r="F131" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>38</v>
+      </c>
+      <c r="F132" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0</v>
+      </c>
+      <c r="D133" s="4">
+        <v>38</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+      <c r="F133" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="4">
+        <v>35</v>
+      </c>
+      <c r="D134" s="4">
+        <v>38</v>
+      </c>
+      <c r="E134" s="4">
+        <v>31</v>
+      </c>
+      <c r="F134" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
+        <v>38</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+      <c r="F135" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>38</v>
+      </c>
+      <c r="F136" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
+        <v>38</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B138" s="4">
+        <v>37</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <v>36</v>
+      </c>
+      <c r="E138" s="4">
+        <v>37</v>
+      </c>
+      <c r="F138" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0</v>
+      </c>
+      <c r="D139" s="4">
+        <v>37</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+      <c r="F139" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0</v>
+      </c>
+      <c r="D140" s="4">
+        <v>32</v>
+      </c>
+      <c r="E140" s="4">
+        <v>37</v>
+      </c>
+      <c r="F140" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
+      <c r="C141" s="4">
+        <v>37</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0</v>
+      </c>
+      <c r="D142" s="4">
+        <v>37</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" s="4">
+        <v>36</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+      <c r="F143" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0</v>
+      </c>
+      <c r="D144" s="4">
+        <v>36</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+      <c r="F144" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0</v>
+      </c>
+      <c r="D145" s="4">
+        <v>36</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+      <c r="F145" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0</v>
+      </c>
+      <c r="D146" s="4">
+        <v>36</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0</v>
+      </c>
+      <c r="D147" s="4">
+        <v>35</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B148" s="4">
+        <v>34</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0</v>
+      </c>
+      <c r="D149" s="4">
+        <v>34</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+      <c r="F149" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>34</v>
+      </c>
+      <c r="F150" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>34</v>
+      </c>
+      <c r="F151" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0</v>
+      </c>
+      <c r="D152" s="4">
+        <v>34</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+      <c r="F152" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="4">
         <v>33</v>
       </c>
-      <c r="D95" s="2">
-        <v>49</v>
-      </c>
-      <c r="E95" s="2">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B96" s="2">
-        <v>49</v>
-      </c>
-      <c r="C96" s="2">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>49</v>
-      </c>
-      <c r="E97" s="2">
-        <v>36</v>
-      </c>
-      <c r="F97" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>47</v>
-      </c>
-      <c r="E98" s="2">
-        <v>49</v>
-      </c>
-      <c r="F98" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <v>48</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>47</v>
-      </c>
-      <c r="E100" s="2">
-        <v>42</v>
-      </c>
-      <c r="F100" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>46</v>
-      </c>
-      <c r="F101" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>46</v>
-      </c>
-      <c r="E102" s="2">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>42</v>
-      </c>
-      <c r="E103" s="2">
-        <v>46</v>
-      </c>
-      <c r="F103" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B104" s="2">
-        <v>45</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="C153" s="4">
+        <v>0</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0</v>
+      </c>
+      <c r="F153" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0</v>
+      </c>
+      <c r="D154" s="4">
+        <v>33</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+      <c r="F154" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0</v>
+      </c>
+      <c r="D155" s="4">
+        <v>33</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0</v>
+      </c>
+      <c r="D156" s="4">
+        <v>33</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0</v>
+      </c>
+      <c r="D157" s="4">
+        <v>33</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0</v>
+      </c>
+      <c r="D158" s="4">
+        <v>33</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0</v>
+      </c>
+      <c r="D159" s="4">
+        <v>33</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" s="4">
+        <v>32</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0</v>
+      </c>
+      <c r="D161" s="4">
+        <v>32</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0</v>
+      </c>
+      <c r="D162" s="4">
+        <v>32</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0</v>
+      </c>
+      <c r="D163" s="4">
+        <v>30</v>
+      </c>
+      <c r="E163" s="4">
+        <v>32</v>
+      </c>
+      <c r="F163" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>32</v>
+      </c>
+      <c r="F164" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>32</v>
+      </c>
+      <c r="F165" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0</v>
+      </c>
+      <c r="D166" s="4">
         <v>31</v>
       </c>
-      <c r="F104" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B105" s="2">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45</v>
-      </c>
-      <c r="E105" s="2">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="5">
         <v>31</v>
       </c>
-      <c r="D106" s="2">
-        <v>45</v>
-      </c>
-      <c r="E106" s="2">
-        <v>40</v>
-      </c>
-      <c r="F106" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2">
-        <v>0</v>
-      </c>
-      <c r="D107" s="2">
-        <v>45</v>
-      </c>
-      <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B108" s="2">
-        <v>44</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B109" s="2">
-        <v>44</v>
-      </c>
-      <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B110" s="2">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>44</v>
-      </c>
-      <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B111" s="2">
-        <v>0</v>
-      </c>
-      <c r="C111" s="2">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2">
-        <v>44</v>
-      </c>
-      <c r="E111" s="2">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B112" s="2">
-        <v>43</v>
-      </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B113" s="2">
-        <v>0</v>
-      </c>
-      <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="2">
-        <v>43</v>
-      </c>
-      <c r="E113" s="2">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B114" s="2">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2">
-        <v>43</v>
-      </c>
-      <c r="E114" s="2">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>43</v>
-      </c>
-      <c r="E115" s="2">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B116" s="2">
-        <v>0</v>
-      </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>42</v>
-      </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B117" s="2">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>42</v>
-      </c>
-      <c r="E117" s="2">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>42</v>
-      </c>
-      <c r="E118" s="2">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B119" s="2">
-        <v>0</v>
-      </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>42</v>
-      </c>
-      <c r="E119" s="2">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B120" s="2">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2">
-        <v>36</v>
-      </c>
-      <c r="D120" s="2">
-        <v>42</v>
-      </c>
-      <c r="E120" s="2">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B121" s="2">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <v>42</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B122" s="2">
-        <v>0</v>
-      </c>
-      <c r="C122" s="2">
-        <v>0</v>
-      </c>
-      <c r="D122" s="2">
-        <v>42</v>
-      </c>
-      <c r="E122" s="2">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B123" s="2">
-        <v>0</v>
-      </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>41</v>
-      </c>
-      <c r="E123" s="2">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B124" s="2">
-        <v>0</v>
-      </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2">
-        <v>34</v>
-      </c>
-      <c r="E124" s="2">
-        <v>41</v>
-      </c>
-      <c r="F124" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B125" s="2">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2">
-        <v>0</v>
-      </c>
-      <c r="D125" s="2">
-        <v>41</v>
-      </c>
-      <c r="E125" s="2">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B126" s="2">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2">
-        <v>41</v>
-      </c>
-      <c r="E126" s="2">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B127" s="2">
-        <v>0</v>
-      </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>40</v>
-      </c>
-      <c r="E127" s="2">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B128" s="2">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2">
-        <v>40</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B129" s="2">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>39</v>
-      </c>
-      <c r="E129" s="2">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B130" s="2">
-        <v>39</v>
-      </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B131" s="2">
-        <v>0</v>
-      </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2">
-        <v>39</v>
-      </c>
-      <c r="F131" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B132" s="2">
-        <v>0</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2">
-        <v>38</v>
-      </c>
-      <c r="F132" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B133" s="2">
-        <v>0</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>38</v>
-      </c>
-      <c r="E133" s="2">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B134" s="2">
-        <v>0</v>
-      </c>
-      <c r="C134" s="2">
-        <v>35</v>
-      </c>
-      <c r="D134" s="2">
-        <v>38</v>
-      </c>
-      <c r="E134" s="2">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0</v>
+      </c>
+      <c r="D167" s="4">
         <v>31</v>
       </c>
-      <c r="F134" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>38</v>
-      </c>
-      <c r="E135" s="2">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B136" s="2">
-        <v>0</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
-        <v>38</v>
-      </c>
-      <c r="F136" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B137" s="2">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>38</v>
-      </c>
-      <c r="E137" s="2">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B138" s="2">
-        <v>37</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>36</v>
-      </c>
-      <c r="E138" s="2">
-        <v>37</v>
-      </c>
-      <c r="F138" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B139" s="2">
-        <v>0</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>37</v>
-      </c>
-      <c r="E139" s="2">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B140" s="2">
-        <v>0</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>32</v>
-      </c>
-      <c r="E140" s="2">
-        <v>37</v>
-      </c>
-      <c r="F140" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B141" s="2">
-        <v>0</v>
-      </c>
-      <c r="C141" s="2">
-        <v>37</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="2">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B142" s="2">
-        <v>0</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>37</v>
-      </c>
-      <c r="E142" s="2">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B143" s="2">
-        <v>36</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="2">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B144" s="2">
-        <v>0</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>36</v>
-      </c>
-      <c r="E144" s="2">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B145" s="2">
-        <v>0</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>36</v>
-      </c>
-      <c r="E145" s="2">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B146" s="2">
-        <v>0</v>
-      </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>36</v>
-      </c>
-      <c r="E146" s="2">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B147" s="2">
-        <v>0</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>35</v>
-      </c>
-      <c r="E147" s="2">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B148" s="2">
-        <v>34</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="2">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B149" s="2">
-        <v>0</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>34</v>
-      </c>
-      <c r="E149" s="2">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B150" s="2">
-        <v>0</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="2">
-        <v>34</v>
-      </c>
-      <c r="F150" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B151" s="2">
-        <v>0</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
-        <v>34</v>
-      </c>
-      <c r="F151" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B152" s="2">
-        <v>0</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>34</v>
-      </c>
-      <c r="E152" s="2">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B153" s="2">
-        <v>33</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="2">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B154" s="2">
-        <v>0</v>
-      </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>33</v>
-      </c>
-      <c r="E154" s="2">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B155" s="2">
-        <v>0</v>
-      </c>
-      <c r="C155" s="2">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>33</v>
-      </c>
-      <c r="E155" s="2">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B156" s="2">
-        <v>0</v>
-      </c>
-      <c r="C156" s="2">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>33</v>
-      </c>
-      <c r="E156" s="2">
-        <v>0</v>
-      </c>
-      <c r="F156" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B157" s="2">
-        <v>0</v>
-      </c>
-      <c r="C157" s="2">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>33</v>
-      </c>
-      <c r="E157" s="2">
-        <v>0</v>
-      </c>
-      <c r="F157" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B158" s="2">
-        <v>0</v>
-      </c>
-      <c r="C158" s="2">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>33</v>
-      </c>
-      <c r="E158" s="2">
-        <v>0</v>
-      </c>
-      <c r="F158" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B159" s="2">
-        <v>0</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>33</v>
-      </c>
-      <c r="E159" s="2">
-        <v>0</v>
-      </c>
-      <c r="F159" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B160" s="2">
-        <v>32</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="2">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B161" s="2">
-        <v>0</v>
-      </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>32</v>
-      </c>
-      <c r="E161" s="2">
-        <v>0</v>
-      </c>
-      <c r="F161" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B162" s="2">
-        <v>0</v>
-      </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>32</v>
-      </c>
-      <c r="E162" s="2">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B163" s="2">
-        <v>0</v>
-      </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0</v>
+      </c>
+      <c r="D168" s="4">
+        <v>31</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0</v>
+      </c>
+      <c r="D169" s="4">
+        <v>31</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+      <c r="F169" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>31</v>
+      </c>
+      <c r="F170" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0</v>
+      </c>
+      <c r="D171" s="4">
+        <v>31</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0</v>
+      </c>
+      <c r="D172" s="4">
+        <v>31</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+      <c r="D173" s="4">
+        <v>31</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
         <v>30</v>
       </c>
-      <c r="E163" s="2">
-        <v>32</v>
-      </c>
-      <c r="F163" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B164" s="2">
-        <v>0</v>
-      </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2">
-        <v>32</v>
-      </c>
-      <c r="F164" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B165" s="2">
-        <v>0</v>
-      </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2">
-        <v>32</v>
-      </c>
-      <c r="F165" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B166" s="2">
-        <v>0</v>
-      </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>31</v>
-      </c>
-      <c r="E166" s="2">
-        <v>0</v>
-      </c>
-      <c r="F166" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B167" s="2">
-        <v>0</v>
-      </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>31</v>
-      </c>
-      <c r="E167" s="2">
-        <v>0</v>
-      </c>
-      <c r="F167" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B168" s="2">
-        <v>0</v>
-      </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>31</v>
-      </c>
-      <c r="E168" s="2">
-        <v>0</v>
-      </c>
-      <c r="F168" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B169" s="2">
-        <v>0</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>31</v>
-      </c>
-      <c r="E169" s="2">
-        <v>0</v>
-      </c>
-      <c r="F169" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B170" s="2">
-        <v>0</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
-        <v>31</v>
-      </c>
-      <c r="F170" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B171" s="2">
-        <v>0</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>31</v>
-      </c>
-      <c r="E171" s="2">
-        <v>0</v>
-      </c>
-      <c r="F171" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B172" s="2">
-        <v>0</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>31</v>
-      </c>
-      <c r="E172" s="2">
-        <v>0</v>
-      </c>
-      <c r="F172" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B173" s="2">
-        <v>0</v>
-      </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>31</v>
-      </c>
-      <c r="E173" s="2">
-        <v>0</v>
-      </c>
-      <c r="F173" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+      <c r="F174" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B174" s="2">
-        <v>0</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2">
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0</v>
+      </c>
+      <c r="D175" s="4">
         <v>30</v>
       </c>
-      <c r="F174" s="3">
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B175" s="2">
-        <v>0</v>
-      </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="C176" s="4">
+        <v>0</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4">
         <v>30</v>
       </c>
-      <c r="E175" s="2">
-        <v>0</v>
-      </c>
-      <c r="F175" s="3">
+      <c r="F176" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B176" s="2">
-        <v>0</v>
-      </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2">
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0</v>
+      </c>
+      <c r="D177" s="4">
         <v>30</v>
       </c>
-      <c r="F176" s="3">
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+      <c r="F177" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B177" s="2">
-        <v>0</v>
-      </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+      <c r="E178" s="4">
         <v>30</v>
       </c>
-      <c r="E177" s="2">
-        <v>0</v>
-      </c>
-      <c r="F177" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B178" s="2">
-        <v>0</v>
-      </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="2">
-        <v>30</v>
-      </c>
-      <c r="F178" s="3">
+      <c r="F178" s="5">
         <v>30</v>
       </c>
     </row>
@@ -5614,894 +5611,894 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>177</v>
       </c>
